--- a/biology/Zoologie/Buthacus_tadmorensis/Buthacus_tadmorensis.xlsx
+++ b/biology/Zoologie/Buthacus_tadmorensis/Buthacus_tadmorensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Buthacus tadmorensis est une espèce de scorpions de la famille des Buthidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre en Syrie, en Jordanie, en Irak, en Turquie et en Iran[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre en Syrie, en Jordanie, en Irak, en Turquie et en Iran.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le mâle décrit par Cain, Gefen et Prendini en 2021 mesure 66,8 mm et les femelles de 66,3 à 75,2 mm[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le mâle décrit par Cain, Gefen et Prendini en 2021 mesure 66,8 mm et les femelles de 66,3 à 75,2 mm.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Buthus tadmorensis par Simon en 1892. Elle est placée en synonymie avec Buthacus leptochelys par Kraepelin en 1895[2]. Elle est relevée de synonymie par Lourenço en 2006[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Buthus tadmorensis par Simon en 1892. Elle est placée en synonymie avec Buthacus leptochelys par Kraepelin en 1895. Elle est relevée de synonymie par Lourenço en 2006.
 </t>
         </is>
       </c>
@@ -604,7 +622,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Son nom d'espèce, composé de tadmor et du suffixe latin -ensis, « qui vit dans, qui habite », lui a été donné en référence au lieu de sa découverte, Tadmor.
 </t>
@@ -635,7 +655,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Simon, 1892 : « Liste des arachnides recueillis en Syrie par M. le docteur Théod. Barrois. » Revue Biologique du Nord de la France, vol. 5, p. 80–84.</t>
         </is>
